--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3834841.137589308</v>
+        <v>3832589.057878099</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>406.049105616774</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.1793357460773</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>167.6516704252974</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917076</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>164.3202860925996</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>20.8490124554977</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727785</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.7531392692423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.02719212039631</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>41.0268615655026</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.0992099793456</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.63412424768257</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.2562870115476</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>125.2851635392057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>25.52471385612597</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.437227901961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>55.52079624060384</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329571</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>126.4418041083155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223195</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>883.8708262827838</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>525.6051276760334</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>525.6051276760334</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>518.6596269268299</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287317</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.2351809199101</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2351809199101</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1668.118969204305</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.434480998418</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.017310961457</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>896.0277600634403</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.2351809199101</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>654.0504646744041</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3049.335066174043</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3049.335066174043</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>3049.335066174043</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2675.869307912963</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
@@ -4656,10 +4656,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218339</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1624.71859813194</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1624.71859813194</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.820931986406</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>809.8584150459947</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
         <v>809.8584150459947</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1565.420772050528</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
@@ -4881,52 +4881,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1914.135768168901</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1914.135768168901</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1914.135768168901</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1914.135768168901</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1914.135768168901</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622266</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343197</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219839</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395908</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>302.4540366416804</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>135.2579373565604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
         <v>1522.21291626627</v>
@@ -5370,13 +5370,13 @@
         <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.70136564882</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.90878650529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
         <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622266</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343197</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219839</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395908</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>302.4540366416804</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>160.7422054838785</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565524</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>119.599202296584</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>251.562654109227</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,37 +7388,37 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7427,7 +7427,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7436,10 +7436,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>214.9229991561141</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9229991561141</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718727</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684976</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.288144095049</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.23897475306292</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.73277020259169</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.31459260779044</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.74112246243909</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>15.00954930701792</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>92.12028678808259</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>55.74112246243956</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>84.77391660562004</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.71423459433115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637737.4940600011</v>
+        <v>637737.494060001</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176755</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176758</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977562</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818182</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818179</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728346.8595894915</v>
+        <v>-728346.8595894922</v>
       </c>
       <c r="C6" t="n">
-        <v>600397.8861381005</v>
+        <v>600397.8861381008</v>
       </c>
       <c r="D6" t="n">
-        <v>600397.8861381005</v>
+        <v>600397.8861381004</v>
       </c>
       <c r="E6" t="n">
-        <v>347436.0789196627</v>
+        <v>347401.3409942277</v>
       </c>
       <c r="F6" t="n">
-        <v>672848.5407270181</v>
+        <v>672813.8028015828</v>
       </c>
       <c r="G6" t="n">
-        <v>672848.5407270184</v>
+        <v>672813.8028015824</v>
       </c>
       <c r="H6" t="n">
-        <v>672848.5407270184</v>
+        <v>672813.8028015823</v>
       </c>
       <c r="I6" t="n">
-        <v>672848.5407270183</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="J6" t="n">
-        <v>455317.3383297406</v>
+        <v>455282.6004043052</v>
       </c>
       <c r="K6" t="n">
-        <v>672848.5407270184</v>
+        <v>672813.8028015825</v>
       </c>
       <c r="L6" t="n">
-        <v>672848.5407270186</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="M6" t="n">
-        <v>587793.5127915061</v>
+        <v>587758.7748660708</v>
       </c>
       <c r="N6" t="n">
-        <v>672848.5407270181</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="O6" t="n">
-        <v>672848.5407270183</v>
+        <v>672813.8028015824</v>
       </c>
       <c r="P6" t="n">
-        <v>672848.5407270187</v>
+        <v>672813.8028015826</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>4.87262003667945</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295092</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>118.5601677803155</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>86.67488586630242</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>198.6999368206715</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548169</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.484799386811289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>75.90496054965102</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312099</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>165.2255134509763</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33023,13 +33023,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111248</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>276.96469254416</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>249.1672590991336</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>251.8861049150255</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867654</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>31.25110603664601</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36671,13 +36671,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>55.96455263125056</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>291.5823913937584</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>122.329632432467</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>120.5443928316922</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
